--- a/final-project-review-times-02.xlsx
+++ b/final-project-review-times-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759062F2-1D81-BE4E-939D-05A7AE89FF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8231807-EC28-3741-8FDB-8968DD4141C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="46180" windowHeight="27720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -199,6 +199,39 @@
   </si>
   <si>
     <t>TwitterCLI</t>
+  </si>
+  <si>
+    <t>Darwin’s Natural Selection</t>
+  </si>
+  <si>
+    <t>Virtual Jazz Omnichord</t>
+  </si>
+  <si>
+    <t>TicTacToe</t>
+  </si>
+  <si>
+    <t>Mosaic Plus</t>
+  </si>
+  <si>
+    <t>EverydayWords</t>
+  </si>
+  <si>
+    <t>NguyenMathTutorStart</t>
+  </si>
+  <si>
+    <t>1-2pm</t>
+  </si>
+  <si>
+    <t>Project Cobra</t>
+  </si>
+  <si>
+    <t>Amazon PriceChecker</t>
+  </si>
+  <si>
+    <t>3-4pm</t>
+  </si>
+  <si>
+    <t>Dolphin Whisper</t>
   </si>
 </sst>
 </file>
@@ -598,13 +631,13 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="5" max="5" width="29.1640625" customWidth="1"/>
@@ -639,6 +672,9 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
       <c r="C2" s="2">
         <v>43805</v>
       </c>
@@ -731,6 +767,9 @@
       <c r="A7" t="s">
         <v>19</v>
       </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
       <c r="C7" s="2">
         <v>43808</v>
       </c>
@@ -748,6 +787,9 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
       <c r="C8" s="2">
         <v>43808</v>
       </c>
@@ -765,7 +807,9 @@
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="C9" s="6">
         <v>43808</v>
       </c>
@@ -818,6 +862,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="2">
         <v>43808</v>
       </c>
@@ -902,6 +949,9 @@
       <c r="A16" t="s">
         <v>11</v>
       </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="2">
         <v>43811</v>
       </c>
@@ -1023,11 +1073,14 @@
       <c r="A23" t="s">
         <v>27</v>
       </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
       <c r="C23" s="2">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>37</v>
@@ -1057,6 +1110,9 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
       <c r="C25" s="2">
         <v>43812</v>
       </c>
@@ -1074,11 +1130,14 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
       <c r="C26" s="2">
-        <v>43812</v>
+        <v>43805</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>

--- a/final-project-review-times-02.xlsx
+++ b/final-project-review-times-02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8231807-EC28-3741-8FDB-8968DD4141C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F195267-7AFA-E645-B94A-9393844473DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="46180" windowHeight="27720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -120,9 +120,6 @@
     <t>Alejandro Rodriguez</t>
   </si>
   <si>
-    <t>Fernando Renteria</t>
-  </si>
-  <si>
     <t>Israel Ramos</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>Mariano Franchi</t>
   </si>
   <si>
-    <t>Nathaniel Amster</t>
-  </si>
-  <si>
     <t>Pablo Moreno Jr.</t>
   </si>
   <si>
@@ -225,13 +219,31 @@
     <t>Project Cobra</t>
   </si>
   <si>
-    <t>Amazon PriceChecker</t>
-  </si>
-  <si>
     <t>3-4pm</t>
   </si>
   <si>
     <t>Dolphin Whisper</t>
+  </si>
+  <si>
+    <t>Warhawks Login</t>
+  </si>
+  <si>
+    <t>Amazon Price Checker</t>
+  </si>
+  <si>
+    <t>Fernando Renteria &amp; Nathaniel Amster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online Identifier </t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Shelves</t>
+  </si>
+  <si>
+    <t>Dokkan Summons</t>
   </si>
 </sst>
 </file>
@@ -241,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +269,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -285,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -314,6 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -628,15 +647,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" customWidth="1"/>
@@ -656,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>14</v>
@@ -673,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2">
         <v>43805</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -690,50 +709,57 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
         <v>43808</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="2">
         <v>43808</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -743,38 +769,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
         <v>43808</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5"/>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2">
         <v>43808</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
@@ -784,55 +803,58 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6">
         <v>43808</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2">
         <v>43808</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="D9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="2">
         <v>43808</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
@@ -842,34 +864,35 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6">
         <v>43808</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <v>43808</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
@@ -879,87 +902,74 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
         <v>43808</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="6">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43808</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="2">
         <v>43811</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>42</v>
+      <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
         <v>43811</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -967,16 +977,19 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="2">
         <v>43811</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -984,106 +997,122 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
       </c>
       <c r="C18" s="2">
         <v>43811</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="C21" s="2">
         <v>43811</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10">
-        <v>43812</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="9">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9"/>
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
         <v>43811</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1091,16 +1120,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1108,19 +1137,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1128,19 +1154,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>43805</v>
+        <v>43811</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1148,50 +1171,52 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10">
         <v>43812</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="2">
-        <v>43812</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
+      <c r="D28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>43812</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1199,33 +1224,39 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
       </c>
       <c r="C30" s="2">
         <v>43812</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="2">
         <v>43812</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1233,16 +1264,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
       </c>
       <c r="C32" s="2">
         <v>43812</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1250,35 +1284,21 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>57</v>
       </c>
       <c r="C33" s="2">
         <v>43812</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="2">
-        <v>43812</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34">
         <v>1</v>
       </c>
     </row>

--- a/final-project-review-times-02.xlsx
+++ b/final-project-review-times-02.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F195267-7AFA-E645-B94A-9393844473DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DED286-E40F-4084-9213-2B016294EA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="46180" windowHeight="27720" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="75">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -244,6 +244,21 @@
   </si>
   <si>
     <t>Dokkan Summons</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Herman The Piano</t>
+  </si>
+  <si>
+    <t>LearningLanguage</t>
+  </si>
+  <si>
+    <t>5-6pm</t>
   </si>
 </sst>
 </file>
@@ -277,18 +292,12 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -315,14 +324,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -333,6 +335,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,24 +658,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5" customWidth="1"/>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -680,633 +692,674 @@
       <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C2" s="2">
         <v>43805</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2">
         <v>43805</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43805</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="7">
         <v>43808</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>43808</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="2">
         <v>43808</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="6">
+      <c r="F7" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
         <v>43808</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2">
         <v>43808</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="F9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7">
         <v>43808</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="2">
         <v>43808</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
       <c r="C12" s="2">
         <v>43808</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>43</v>
+        <v>43811</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2">
-        <v>43808</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>43811</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2">
         <v>43811</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
       </c>
       <c r="C16" s="2">
         <v>43811</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E16" t="s">
         <v>35</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
         <v>43811</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="F17" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7">
         <v>43811</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2">
+        <v>43811</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>35</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
         <v>43811</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2">
         <v>43811</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>42</v>
+      <c r="D21" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
         <v>43811</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>42</v>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2">
         <v>43811</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>45</v>
+      <c r="D23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="E23" t="s">
         <v>38</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>43811</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>46</v>
+      <c r="D24" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E24" t="s">
         <v>38</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7">
+        <v>43812</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F25" s="12"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>48</v>
+        <v>43812</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="2">
-        <v>43811</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>43812</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="10">
+        <v>35</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="2">
         <v>43812</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="9">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>43812</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C30" s="2">
         <v>43812</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C31" s="2">
         <v>43812</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7">
         <v>43812</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="D32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6">
+        <v>1</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7">
         <v>43812</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
+      <c r="D33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="6">
+        <v>1</v>
+      </c>
+      <c r="H33" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G34">
-    <sortCondition ref="C2:C34"/>
-    <sortCondition ref="D2:D34"/>
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H37">
+    <sortCondition ref="C2:C37"/>
+    <sortCondition ref="D2:D37"/>
+    <sortCondition ref="A2:A37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final-project-review-times-02.xlsx
+++ b/final-project-review-times-02.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E45D2E-54A5-4B30-A133-D174D63F4A88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B7229-6A1B-264E-A3B2-04A4F0584E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="13460" yWindow="7720" windowWidth="43360" windowHeight="25580" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t xml:space="preserve">Carter Burzlaff </t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>LearningLanguage</t>
-  </si>
-  <si>
-    <t>5-6pm</t>
   </si>
   <si>
     <t>And OOP</t>
@@ -662,26 +659,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8964692-9E79-B841-82B7-608B598E1C66}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="42.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="4"/>
+    <col min="1" max="1" width="33.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8" style="4" customWidth="1"/>
+    <col min="5" max="5" width="1.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,20 +692,21 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -720,18 +719,19 @@
       <c r="D2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="E2" s="7"/>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="5">
         <v>2</v>
       </c>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -744,14 +744,15 @@
       <c r="D3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="E3" s="7"/>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>28</v>
       </c>
@@ -764,17 +765,18 @@
       <c r="D4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -787,17 +789,18 @@
       <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -810,18 +813,19 @@
       <c r="D6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="11"/>
+      <c r="F6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
@@ -834,60 +838,63 @@
       <c r="D7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="10">
+        <v>43808</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6">
-        <v>43808</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="B9" s="5"/>
       <c r="C9" s="6">
         <v>43808</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="7"/>
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="6">
         <v>43808</v>
@@ -895,69 +902,69 @@
       <c r="D10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="6">
+        <v>43808</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C12" s="10">
         <v>43808</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C12" s="6">
-        <v>43808</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="C13" s="6">
         <v>43808</v>
@@ -965,68 +972,68 @@
       <c r="D13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="10">
+        <v>43808</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43808</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="C16" s="6">
         <v>43811</v>
@@ -1034,265 +1041,274 @@
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="G16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C19" s="10">
         <v>43811</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E19" s="11"/>
+      <c r="F19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C20" s="10">
         <v>43811</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="C21" s="6">
         <v>43811</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="6">
         <v>43811</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6">
         <v>43811</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6">
         <v>43811</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E26" s="7"/>
+      <c r="F26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="G26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="10">
+      <c r="B27" s="5"/>
+      <c r="C27" s="10">
         <v>43812</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D27" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="5">
-        <v>1</v>
-      </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43812</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="6">
-        <v>43812</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C28" s="6">
         <v>43812</v>
@@ -1300,22 +1316,23 @@
       <c r="D28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C29" s="6">
         <v>43812</v>
@@ -1323,22 +1340,23 @@
       <c r="D29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+      <c r="F29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6">
         <v>43812</v>
@@ -1346,84 +1364,97 @@
       <c r="D30" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="4">
-        <v>1</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="6">
         <v>43812</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="6">
+        <v>43812</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6">
+        <v>43812</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="10">
-        <v>43812</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="10">
-        <v>43812</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="5">
-        <v>1</v>
-      </c>
-      <c r="H33" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H33">
-    <sortCondition ref="C2:C33"/>
-    <sortCondition ref="D2:D33"/>
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
+    <sortCondition ref="C2:C34"/>
+    <sortCondition ref="D2:D34"/>
+    <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/final-project-review-times-02.xlsx
+++ b/final-project-review-times-02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Development/Source/cpsc-24500/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\cpsc-24500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739B7229-6A1B-264E-A3B2-04A4F0584E06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B724EC-F5AF-4051-905A-56AD8EC5E11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13460" yWindow="7720" windowWidth="43360" windowHeight="25580" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
+    <workbookView xWindow="5080" yWindow="1660" windowWidth="25950" windowHeight="13350" xr2:uid="{69E90249-C788-7644-B418-6A43D7DEF21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -662,10 +662,10 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -679,39 +679,37 @@
     <col min="10" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>52</v>
+      </c>
+      <c r="C1" s="6">
+        <v>43805</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2</v>
+      </c>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="6">
         <v>43805</v>
@@ -720,93 +718,88 @@
         <v>42</v>
       </c>
       <c r="E2" s="7"/>
-      <c r="F2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
         <v>2</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6">
         <v>43805</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="H3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10">
+        <v>43808</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="6">
-        <v>43805</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="C5" s="6">
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="10">
         <v>43808</v>
       </c>
@@ -817,21 +810,17 @@
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="G6" s="8"/>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
       <c r="C7" s="6">
         <v>43808</v>
       </c>
@@ -842,36 +831,41 @@
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="G7" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="10">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6">
         <v>43808</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C9" s="6">
         <v>43808</v>
       </c>
@@ -889,33 +883,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="6">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="10">
         <v>43808</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6">
         <v>43808</v>
@@ -934,13 +932,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>54</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="10">
         <v>43808</v>
       </c>
@@ -951,20 +947,18 @@
       <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="G12" s="8"/>
       <c r="H12" s="5">
         <v>1</v>
       </c>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C13" s="6">
         <v>43808</v>
@@ -983,43 +977,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="10">
-        <v>43808</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C15" s="6">
-        <v>43808</v>
+        <v>43811</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>70</v>
@@ -1028,12 +1025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" s="6">
         <v>43811</v>
@@ -1052,12 +1049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" s="6">
         <v>43811</v>
@@ -1076,33 +1073,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="10">
         <v>43811</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="4" t="s">
+      <c r="D18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>5</v>
@@ -1115,61 +1115,55 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43811</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="10">
-        <v>43811</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6">
         <v>43811</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>70</v>
@@ -1178,15 +1172,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6">
         <v>43811</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="4" t="s">
@@ -1199,15 +1193,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6">
         <v>43811</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="4" t="s">
@@ -1220,15 +1214,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="6">
         <v>43811</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="4" t="s">
@@ -1241,15 +1235,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6">
         <v>43811</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="4" t="s">
@@ -1262,53 +1256,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="6">
-        <v>43811</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="10">
+        <v>43812</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="10">
+      <c r="G26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6">
         <v>43812</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="C28" s="6">
         <v>43812</v>
@@ -1324,15 +1321,15 @@
         <v>70</v>
       </c>
       <c r="H28" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C29" s="6">
         <v>43812</v>
@@ -1348,15 +1345,15 @@
         <v>70</v>
       </c>
       <c r="H29" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6">
         <v>43812</v>
@@ -1375,12 +1372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C31" s="6">
         <v>43812</v>
@@ -1390,7 +1387,7 @@
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="4" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>70</v>
@@ -1399,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>10</v>
       </c>
@@ -1414,7 +1411,7 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="4" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>70</v>
@@ -1422,39 +1419,42 @@
       <c r="H32" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="6">
-        <v>43812</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I34">
-    <sortCondition ref="C2:C34"/>
-    <sortCondition ref="D2:D34"/>
-    <sortCondition ref="A2:A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:I33">
+    <sortCondition ref="C1:C33"/>
+    <sortCondition ref="D1:D33"/>
+    <sortCondition ref="A1:A33"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
